--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:05:31+00:00</t>
+    <t>2025-10-15T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:23:03+00:00</t>
+    <t>2025-10-15T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T16:03:41+00:00</t>
+    <t>2025-10-15T17:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Observation - Injury Intent</t>
+    <t>RS Observation - Injury Intent</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS Observation - Injury Intent</t>
+    <t>Road Safety Observation - Injury Intent</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Observation - Injury Intent</t>
+    <t>RS Observation - Injury Intent</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -662,7 +662,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/ValueSet/vs-injury-intent</t>
+    <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-InjuryIntent</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -738,6 +738,13 @@
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+  &lt;code value="11375-3"/&gt;
+  &lt;display value="Injury intent"/&gt;
+&lt;/valueCoding&gt;</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1853,7 +1860,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.05078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -4088,7 +4095,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>83</v>
@@ -4130,7 +4137,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4151,10 +4158,10 @@
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4165,10 +4172,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4194,16 +4201,16 @@
         <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -4252,7 +4259,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4273,10 +4280,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4287,10 +4294,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4313,19 +4320,19 @@
         <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -4374,7 +4381,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4389,19 +4396,19 @@
         <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4409,10 +4416,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4435,16 +4442,16 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4494,7 +4501,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4518,10 +4525,10 @@
         <v>210</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -4529,14 +4536,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4555,19 +4562,19 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>83</v>
@@ -4616,7 +4623,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4631,19 +4638,19 @@
         <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
@@ -4651,14 +4658,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4677,19 +4684,19 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4738,7 +4745,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4753,19 +4760,19 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -4773,10 +4780,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4799,16 +4806,16 @@
         <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4858,7 +4865,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4879,13 +4886,13 @@
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -4893,10 +4900,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4919,17 +4926,17 @@
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -4978,7 +4985,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -4993,19 +5000,19 @@
         <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5013,10 +5020,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5039,19 +5046,19 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5100,7 +5107,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5109,7 +5116,7 @@
         <v>94</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>106</v>
@@ -5118,27 +5125,27 @@
         <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5164,16 +5171,16 @@
         <v>192</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5198,13 +5205,13 @@
         <v>83</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5222,7 +5229,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5231,7 +5238,7 @@
         <v>94</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>106</v>
@@ -5246,7 +5253,7 @@
         <v>137</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>83</v>
@@ -5257,14 +5264,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5286,16 +5293,16 @@
         <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5320,13 +5327,13 @@
         <v>83</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>83</v>
@@ -5344,7 +5351,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5362,27 +5369,27 @@
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5405,19 +5412,19 @@
         <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -5466,7 +5473,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5487,10 +5494,10 @@
         <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
@@ -5501,10 +5508,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5530,13 +5537,13 @@
         <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5562,13 +5569,13 @@
         <v>83</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>83</v>
@@ -5586,7 +5593,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5604,27 +5611,27 @@
         <v>83</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5650,16 +5657,16 @@
         <v>192</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
@@ -5684,13 +5691,13 @@
         <v>83</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>83</v>
@@ -5708,7 +5715,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5729,10 +5736,10 @@
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -5743,10 +5750,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5769,16 +5776,16 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5828,7 +5835,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5846,27 +5853,27 @@
         <v>83</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5889,16 +5896,16 @@
         <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5948,7 +5955,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5966,27 +5973,27 @@
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6009,19 +6016,19 @@
         <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6070,7 +6077,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6082,7 +6089,7 @@
         <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>83</v>
@@ -6091,10 +6098,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6105,10 +6112,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6223,10 +6230,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6343,14 +6350,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6372,10 +6379,10 @@
         <v>140</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>143</v>
@@ -6430,7 +6437,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6465,10 +6472,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6491,13 +6498,13 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6548,7 +6555,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6557,7 +6564,7 @@
         <v>94</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>106</v>
@@ -6569,10 +6576,10 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6583,10 +6590,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6609,13 +6616,13 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6666,7 +6673,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6675,7 +6682,7 @@
         <v>94</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>106</v>
@@ -6687,10 +6694,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6701,10 +6708,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6730,16 +6737,16 @@
         <v>192</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -6767,10 +6774,10 @@
         <v>118</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>83</v>
@@ -6788,7 +6795,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6806,13 +6813,13 @@
         <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -6823,10 +6830,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6852,16 +6859,16 @@
         <v>192</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -6886,13 +6893,13 @@
         <v>83</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>83</v>
@@ -6910,7 +6917,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6928,13 +6935,13 @@
         <v>83</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -6945,10 +6952,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6971,17 +6978,17 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7030,7 +7037,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7054,7 +7061,7 @@
         <v>83</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7065,10 +7072,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7094,10 +7101,10 @@
         <v>215</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7148,7 +7155,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7169,10 +7176,10 @@
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7183,10 +7190,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7209,16 +7216,16 @@
         <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7268,7 +7275,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7289,10 +7296,10 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7303,10 +7310,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7329,16 +7336,16 @@
         <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7388,7 +7395,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7409,10 +7416,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7423,10 +7430,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7449,19 +7456,19 @@
         <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -7510,7 +7517,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7531,10 +7538,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7545,10 +7552,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7663,10 +7670,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7783,14 +7790,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7812,10 +7819,10 @@
         <v>140</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>143</v>
@@ -7870,7 +7877,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7905,10 +7912,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7934,13 +7941,13 @@
         <v>192</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>206</v>
@@ -7968,13 +7975,13 @@
         <v>83</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>83</v>
@@ -7992,7 +7999,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>94</v>
@@ -8010,7 +8017,7 @@
         <v>83</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>210</v>
@@ -8027,10 +8034,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8053,19 +8060,19 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8114,7 +8121,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8132,27 +8139,27 @@
         <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8178,16 +8185,16 @@
         <v>192</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8212,13 +8219,13 @@
         <v>83</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>83</v>
@@ -8236,7 +8243,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8245,7 +8252,7 @@
         <v>94</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>106</v>
@@ -8260,7 +8267,7 @@
         <v>137</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8271,14 +8278,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8300,16 +8307,16 @@
         <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8334,13 +8341,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8358,7 +8365,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8376,27 +8383,27 @@
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8422,16 +8429,16 @@
         <v>84</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8480,7 +8487,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8501,10 +8508,10 @@
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4095,10 +4095,10 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S19" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3690,7 +3690,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>201</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>94</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-injury-intent.xlsx
+++ b/StructureDefinition-rs-observation-injury-intent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
